--- a/docs/lcms/lcms-metadata.xlsx
+++ b/docs/lcms/lcms-metadata.xlsx
@@ -70,7 +70,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
+          <t>SenNet ID of the source (whole organism) of the assayed tissue.</t>
         </r>
       </text>
     </comment>
@@ -83,7 +83,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>HuBMAP Display ID of the assayed tissue.</t>
+          <t>SenNet ID of the assayed tissue.</t>
         </r>
       </text>
     </comment>
